--- a/data/trans_orig/P33A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB66BCA-088F-4715-BB67-2A162260857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBE231E-9D28-4A0F-8710-5172B09784E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C70951E7-95F3-4F77-9CC2-CC1FAA6BE8E1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0DC5BE8-C39E-4277-817F-1BFABCEF6CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>86,19%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,81%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,571 +139,607 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>70,77%</t>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>79,81%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>21,57%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7298A3-3C5C-4DC8-8403-07F06AEB799A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949518AB-9A78-4C9C-996F-140DE4454706}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1406,7 +1442,7 @@
         <v>1184</v>
       </c>
       <c r="I7" s="7">
-        <v>1272202</v>
+        <v>1272203</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1508,7 +1544,7 @@
         <v>1618</v>
       </c>
       <c r="I9" s="7">
-        <v>1740683</v>
+        <v>1740684</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1866,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2CAEA2-693E-4D42-893B-B3E59143548A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A584B687-89F1-4F93-8793-3CB2D6B4ACF6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2617,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF37ECAE-F5D3-4A3C-8651-620FF704148F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792698F-0823-406A-80F4-9843658B0245}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2741,13 +2777,13 @@
         <v>390207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>899</v>
@@ -2756,13 +2792,13 @@
         <v>519458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1401</v>
@@ -2771,13 +2807,13 @@
         <v>909665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2828,13 @@
         <v>150488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
@@ -2807,13 +2843,13 @@
         <v>307172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>706</v>
@@ -2822,13 +2858,13 @@
         <v>457660</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2932,13 @@
         <v>1824657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>2195</v>
@@ -2911,13 +2947,13 @@
         <v>1745607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>3850</v>
@@ -2926,13 +2962,13 @@
         <v>3570264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2983,13 @@
         <v>325224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
@@ -2962,13 +2998,13 @@
         <v>488482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1038</v>
@@ -2977,13 +3013,13 @@
         <v>813706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3087,13 @@
         <v>552551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>791</v>
@@ -3066,13 +3102,13 @@
         <v>558065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>1359</v>
@@ -3081,13 +3117,13 @@
         <v>1110615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3138,13 @@
         <v>116946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -3117,13 +3153,13 @@
         <v>149301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>316</v>
@@ -3132,13 +3168,13 @@
         <v>266247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3242,13 @@
         <v>2767415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>3885</v>
@@ -3221,13 +3257,13 @@
         <v>2823129</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>6610</v>
@@ -3236,13 +3272,13 @@
         <v>5590544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3293,13 @@
         <v>592658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1435</v>
@@ -3272,13 +3308,13 @@
         <v>944955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>2060</v>
@@ -3287,13 +3323,13 @@
         <v>1537613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBE231E-9D28-4A0F-8710-5172B09784E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E35C9E-900C-4368-8B06-4C2FE3431CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0DC5BE8-C39E-4277-817F-1BFABCEF6CD3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0924E2F-E087-4A03-AA07-C94392B03F03}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>86,19%</t>
   </si>
   <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,81%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,247 +196,247 @@
     <t>78,9%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>72,42%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>75,25%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>70,22%</t>
   </si>
   <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>72,47%</t>
+    <t>72,65%</t>
   </si>
   <si>
     <t>77,76%</t>
@@ -445,19 +445,19 @@
     <t>19,68%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>24,71%</t>
@@ -466,16 +466,16 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>27,53%</t>
+    <t>27,35%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>73,68%</t>
@@ -484,31 +484,28 @@
     <t>72,15%</t>
   </si>
   <si>
-    <t>75,28%</t>
+    <t>75,12%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>77,71%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>24,72%</t>
+    <t>24,88%</t>
   </si>
   <si>
     <t>27,85%</t>
@@ -517,10 +514,7 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
@@ -541,9 +535,6 @@
     <t>60,33%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
     <t>66,53%</t>
   </si>
   <si>
@@ -565,9 +556,6 @@
     <t>37,16%</t>
   </si>
   <si>
-    <t>34,35%</t>
-  </si>
-  <si>
     <t>39,67%</t>
   </si>
   <si>
@@ -649,9 +637,6 @@
     <t>75,91%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
     <t>80,66%</t>
   </si>
   <si>
@@ -673,9 +658,6 @@
     <t>21,11%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
     <t>24,09%</t>
   </si>
   <si>
@@ -703,18 +685,12 @@
     <t>73,43%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
     <t>78,43%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
     <t>17,64%</t>
   </si>
   <si>
@@ -727,16 +703,10 @@
     <t>25,08%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
     <t>26,57%</t>
   </si>
   <si>
     <t>21,57%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
   </si>
   <si>
     <t>22,53%</t>
@@ -1151,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949518AB-9A78-4C9C-996F-140DE4454706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33891FE-FA00-493E-9116-D43A07632443}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1442,7 +1412,7 @@
         <v>1184</v>
       </c>
       <c r="I7" s="7">
-        <v>1272203</v>
+        <v>1272202</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1544,7 +1514,7 @@
         <v>1618</v>
       </c>
       <c r="I9" s="7">
-        <v>1740684</v>
+        <v>1740683</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1752,7 +1722,7 @@
         <v>2392</v>
       </c>
       <c r="I13" s="7">
-        <v>2585807</v>
+        <v>2585806</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1854,7 +1824,7 @@
         <v>3268</v>
       </c>
       <c r="I15" s="7">
-        <v>3527696</v>
+        <v>3527695</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1902,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A584B687-89F1-4F93-8793-3CB2D6B4ACF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A6374-F52A-4E1D-B767-762E27181EDE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,7 +2497,7 @@
         <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2512,13 @@
         <v>529245</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>859</v>
@@ -2557,13 +2527,13 @@
         <v>917264</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1356</v>
@@ -2572,13 +2542,13 @@
         <v>1446509</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792698F-0823-406A-80F4-9843658B0245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F6A01-122B-4859-A667-470E6EA77E63}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,13 +2747,13 @@
         <v>390207</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>899</v>
@@ -2792,13 +2762,13 @@
         <v>519458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>1401</v>
@@ -2807,13 +2777,13 @@
         <v>909665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2798,13 @@
         <v>150488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
@@ -2843,13 +2813,13 @@
         <v>307172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>706</v>
@@ -2858,13 +2828,13 @@
         <v>457660</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2902,13 @@
         <v>1824657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>2195</v>
@@ -2947,13 +2917,13 @@
         <v>1745607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>3850</v>
@@ -2962,13 +2932,13 @@
         <v>3570264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2953,13 @@
         <v>325224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
@@ -2998,13 +2968,13 @@
         <v>488482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>1038</v>
@@ -3013,13 +2983,13 @@
         <v>813706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3057,13 @@
         <v>552551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>791</v>
@@ -3102,13 +3072,13 @@
         <v>558065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>1359</v>
@@ -3117,13 +3087,13 @@
         <v>1110615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3108,13 @@
         <v>116946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -3153,13 +3123,13 @@
         <v>149301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>316</v>
@@ -3168,13 +3138,13 @@
         <v>266247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3212,13 @@
         <v>2767415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>3885</v>
@@ -3257,13 +3227,13 @@
         <v>2823129</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>6610</v>
@@ -3272,13 +3242,13 @@
         <v>5590544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3263,13 @@
         <v>592658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>1435</v>
@@ -3308,13 +3278,13 @@
         <v>944955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>2060</v>
@@ -3323,13 +3293,13 @@
         <v>1537613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E35C9E-900C-4368-8B06-4C2FE3431CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBEC9060-D13D-48A7-9399-116CC97A4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0924E2F-E087-4A03-AA07-C94392B03F03}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A97D9D1-C654-4186-8857-D4062AF92A50}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,81%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,79 +196,79 @@
     <t>78,9%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>78,08%</t>
+    <t>77,99%</t>
   </si>
   <si>
     <t>80,02%</t>
@@ -277,19 +277,19 @@
     <t>15,05%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
   </si>
   <si>
     <t>20,99%</t>
@@ -298,7 +298,7 @@
     <t>19,98%</t>
   </si>
   <si>
-    <t>21,92%</t>
+    <t>22,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,280 +310,286 @@
     <t>84,42%</t>
   </si>
   <si>
-    <t>81,51%</t>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>27,83%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
+    <t>20,16%</t>
+  </si>
+  <si>
     <t>22,29%</t>
   </si>
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>39,67%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>81,44%</t>
@@ -592,31 +598,31 @@
     <t>79,99%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>82,96%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>17,04%</t>
   </si>
   <si>
     <t>20,01%</t>
@@ -625,91 +631,79 @@
     <t>82,53%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>75,91%</t>
+    <t>75,94%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>78,39%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>24,09%</t>
+    <t>24,06%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>21,61%</t>
   </si>
   <si>
     <t>82,36%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>80,9%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>25,08%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33891FE-FA00-493E-9116-D43A07632443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8DDD-B4CE-4982-9261-FA9318929381}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1722,7 +1716,7 @@
         <v>2392</v>
       </c>
       <c r="I13" s="7">
-        <v>2585806</v>
+        <v>2585807</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1824,7 +1818,7 @@
         <v>3268</v>
       </c>
       <c r="I15" s="7">
-        <v>3527695</v>
+        <v>3527696</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1872,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A6374-F52A-4E1D-B767-762E27181EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96812C0-BC21-47B0-B311-93FA8F86FB0C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2497,7 +2491,7 @@
         <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2506,13 @@
         <v>529245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>859</v>
@@ -2527,13 +2521,13 @@
         <v>917264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1356</v>
@@ -2542,13 +2536,13 @@
         <v>1446509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F6A01-122B-4859-A667-470E6EA77E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422D4139-D64D-48E0-BDD4-1606D5BECE09}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2741,13 @@
         <v>390207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>899</v>
@@ -2762,13 +2756,13 @@
         <v>519458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>1401</v>
@@ -2777,13 +2771,13 @@
         <v>909665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2792,13 @@
         <v>150488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
@@ -2813,13 +2807,13 @@
         <v>307172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>706</v>
@@ -2828,13 +2822,13 @@
         <v>457660</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2896,13 @@
         <v>1824657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>2195</v>
@@ -2917,13 +2911,13 @@
         <v>1745607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>3850</v>
@@ -2932,13 +2926,13 @@
         <v>3570264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2947,13 @@
         <v>325224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
@@ -2968,13 +2962,13 @@
         <v>488482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>1038</v>
@@ -2983,13 +2977,13 @@
         <v>813706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3051,13 @@
         <v>552551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>791</v>
@@ -3072,13 +3066,13 @@
         <v>558065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>1359</v>
@@ -3087,13 +3081,13 @@
         <v>1110615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3102,13 @@
         <v>116946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -3123,13 +3117,13 @@
         <v>149301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>316</v>
@@ -3138,10 +3132,10 @@
         <v>266247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>209</v>
@@ -3218,7 +3212,7 @@
         <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>3885</v>
@@ -3227,13 +3221,13 @@
         <v>2823129</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>6610</v>
@@ -3242,13 +3236,13 @@
         <v>5590544</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3257,13 @@
         <v>592658</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>1435</v>
@@ -3278,13 +3272,13 @@
         <v>944955</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>2060</v>
@@ -3293,13 +3287,13 @@
         <v>1537613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBEC9060-D13D-48A7-9399-116CC97A4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD622045-4FD3-4B6E-97EE-A3DD2990B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A97D9D1-C654-4186-8857-D4062AF92A50}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E15CFEE2-23DA-4B34-A744-029D4060D71F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -526,184 +526,220 @@
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8DDD-B4CE-4982-9261-FA9318929381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F70C4-C5B7-4836-B8C4-16C7EB9B0FDB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1391,7 +1427,7 @@
         <v>1575</v>
       </c>
       <c r="D7" s="7">
-        <v>1671804</v>
+        <v>1671805</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1493,7 +1529,7 @@
         <v>1841</v>
       </c>
       <c r="D9" s="7">
-        <v>1948236</v>
+        <v>1948237</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1716,7 +1752,7 @@
         <v>2392</v>
       </c>
       <c r="I13" s="7">
-        <v>2585807</v>
+        <v>2585806</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1818,7 +1854,7 @@
         <v>3268</v>
       </c>
       <c r="I15" s="7">
-        <v>3527696</v>
+        <v>3527695</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1866,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96812C0-BC21-47B0-B311-93FA8F86FB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A40FF-8476-41B7-9951-412BCFF2EAF6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2617,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422D4139-D64D-48E0-BDD4-1606D5BECE09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB055C9D-F0F8-40E3-A36C-28F129C1A0A2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,46 +2774,46 @@
         <v>502</v>
       </c>
       <c r="D4" s="7">
-        <v>390207</v>
+        <v>374441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>899</v>
       </c>
       <c r="I4" s="7">
-        <v>519458</v>
+        <v>474219</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1401</v>
       </c>
       <c r="N4" s="7">
-        <v>909665</v>
+        <v>848660</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,46 +2825,46 @@
         <v>188</v>
       </c>
       <c r="D5" s="7">
-        <v>150488</v>
+        <v>139614</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
       </c>
       <c r="I5" s="7">
-        <v>307172</v>
+        <v>273059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>706</v>
       </c>
       <c r="N5" s="7">
-        <v>457660</v>
+        <v>412673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2876,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540695</v>
+        <v>514055</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2891,7 @@
         <v>1417</v>
       </c>
       <c r="I6" s="7">
-        <v>826630</v>
+        <v>747278</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2870,7 +2906,7 @@
         <v>2107</v>
       </c>
       <c r="N6" s="7">
-        <v>1367325</v>
+        <v>1261333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2893,46 +2929,46 @@
         <v>1655</v>
       </c>
       <c r="D7" s="7">
-        <v>1824657</v>
+        <v>1970003</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>2195</v>
       </c>
       <c r="I7" s="7">
-        <v>1745607</v>
+        <v>1777364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>3850</v>
       </c>
       <c r="N7" s="7">
-        <v>3570264</v>
+        <v>3747367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,46 +2980,46 @@
         <v>328</v>
       </c>
       <c r="D8" s="7">
-        <v>325224</v>
+        <v>308175</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
       </c>
       <c r="I8" s="7">
-        <v>488482</v>
+        <v>446578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1038</v>
       </c>
       <c r="N8" s="7">
-        <v>813706</v>
+        <v>754753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,7 +3031,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2149881</v>
+        <v>2278178</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3010,7 +3046,7 @@
         <v>2905</v>
       </c>
       <c r="I9" s="7">
-        <v>2234089</v>
+        <v>2223942</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3025,7 +3061,7 @@
         <v>4888</v>
       </c>
       <c r="N9" s="7">
-        <v>4383970</v>
+        <v>4502120</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3048,46 +3084,46 @@
         <v>568</v>
       </c>
       <c r="D10" s="7">
-        <v>552551</v>
+        <v>526810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>791</v>
       </c>
       <c r="I10" s="7">
-        <v>558065</v>
+        <v>516896</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>1359</v>
       </c>
       <c r="N10" s="7">
-        <v>1110615</v>
+        <v>1043705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,46 +3135,46 @@
         <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>116946</v>
+        <v>116468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>149301</v>
+        <v>137547</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>316</v>
       </c>
       <c r="N11" s="7">
-        <v>266247</v>
+        <v>254016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3186,7 @@
         <v>677</v>
       </c>
       <c r="D12" s="7">
-        <v>669497</v>
+        <v>643278</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3165,7 +3201,7 @@
         <v>998</v>
       </c>
       <c r="I12" s="7">
-        <v>707366</v>
+        <v>654443</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3180,7 +3216,7 @@
         <v>1675</v>
       </c>
       <c r="N12" s="7">
-        <v>1376862</v>
+        <v>1297721</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3203,46 +3239,46 @@
         <v>2725</v>
       </c>
       <c r="D13" s="7">
-        <v>2767415</v>
+        <v>2871254</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>3885</v>
       </c>
       <c r="I13" s="7">
-        <v>2823129</v>
+        <v>2768479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>6610</v>
       </c>
       <c r="N13" s="7">
-        <v>5590544</v>
+        <v>5639732</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,46 +3290,46 @@
         <v>625</v>
       </c>
       <c r="D14" s="7">
-        <v>592658</v>
+        <v>564257</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1435</v>
       </c>
       <c r="I14" s="7">
-        <v>944955</v>
+        <v>857184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>2060</v>
       </c>
       <c r="N14" s="7">
-        <v>1537613</v>
+        <v>1421442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3341,7 @@
         <v>3350</v>
       </c>
       <c r="D15" s="7">
-        <v>3360073</v>
+        <v>3435511</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3320,7 +3356,7 @@
         <v>5320</v>
       </c>
       <c r="I15" s="7">
-        <v>3768084</v>
+        <v>3625663</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3335,7 +3371,7 @@
         <v>8670</v>
       </c>
       <c r="N15" s="7">
-        <v>7128157</v>
+        <v>7061174</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
